--- a/biology/Médecine/Yasmine_Belkaid/Yasmine_Belkaid.xlsx
+++ b/biology/Médecine/Yasmine_Belkaid/Yasmine_Belkaid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yasmine Belkaid (arabe : ياسمين بلقايد), née en août 1968 à Alger, est une immunologiste et chercheuse, qui détient les nationalités algérienne, française et américaine. Elle est spécialiste des relations entre les microbes et le système immunitaire.
 Elle dirige l'Institut Pasteur depuis le 2 janvier 2024 et pour un mandat de 6 ans.
@@ -515,17 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine et études
-Yasmine Belkaid naît et grandit à Alger en 1968[1]. Elle est la fille de l'ancien réssistant anti-colonialiste et ministre algérien Aboubakr Belkaid[1], assassiné en 1995 pendant la décennie noire[1],[2]. Sa mère est française[3].
-En 1986, elle obtient le baccalauréat et, en 1993, un magistère en biochimie à l'université des sciences et de la technologie Houari-Boumédiène. Au cours de ses études, elle travaille à l'Institut Pasteur d'Algérie où elle est chargée d'améliorer les méthodes de diagnostic de la leishmaniose[4]. Le contexte de la décennie noire la contraint à quitter l'Algérie pour la France[5]. Elle passe alors un DEA à l'université Paris-Sud. En 1996, elle soutient sa thèse de doctorat à l'université Paris-Sud et à l'institut Pasteur sur les réponses immunitaires au parasite Leishmania[1],[6].
-Carrière scientifique
-Elle s'installe ensuite aux États-Unis pour poursuivre ses recherches postdoctorales au laboratoire des maladies parasitaires du National Institute of Allergy and Infectious Diseases (NIAID). En 2002, elle rejoint la section d'immunologie moléculaire à l’hôpital pour enfants de Cincinnati. En 2005, elle retourne au NIAID en tant que chercheuse titulaire au laboratoire des maladies parasitaires. En 2008, elle devient professeure associée à l'université de Pennsylvanie[7],[8].
-Elle mène ses recherches sur les interactions entre les microbes et leurs hôtes. Elle explore les réactions du système immunitaire face à la présence de microbes[9]. Au sein du NIAID, elle crée le département de l’immunité de l’hôte et du microbiome[10].
-En janvier 2024, elle prend ses fonctions de directrice générale à l'Institut Pasteur pour un mandat de 6 ans[1],[5]. Elle est la deuxième femme à occuper ce poste[réf. souhaitée].
-Recherches
-Les recherches de Yasmine Belkaid visent à démêler les mécanismes qui sous-tendent les interactions hôte-microbe dans le tractus gastro-intestinal et sur la peau, qui constituent des barrières naturelles entre le fonctionnement interne de l'hôte et son environnement externe[11],[9]. Cela inclut également le rôle que joue le microbiote dans la promotion de l’immunité contre les infections par d’autres agents pathogènes nocifs[11],[12]. Son groupe a contribué à la compréhension scientifique de la manière dont le système immunitaire de l'hôte peut distinguer les bons microbes des mauvais[13],[14].
-Les recherches de Yasmine Belkaid ont également conduit à la découverte de certains microbes cutanés qui jouent un rôle important dans la défense immunitaire[14],[15]. Son équipe a aussi découvert que les bactéries bénéfiques vivant à la surface de la peau peuvent également accélérer la cicatrisation des plaies chez la souris[16].
-Le groupe de Yasmine Belkaid étudie également ce qui se passe en cas de déséquilibre dans notre microbiome. Les recherches de Belkaid ont fait progresser la compréhension scientifique de la manière dont les modifications du microbiote peuvent contribuer aux maladies, en particulier aux maladies inflammatoires chroniques comme la maladie de Crohn et le psoriasis[11],[17].
+          <t>Origine et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yasmine Belkaid naît et grandit à Alger en 1968. Elle est la fille de l'ancien réssistant anti-colonialiste et ministre algérien Aboubakr Belkaid, assassiné en 1995 pendant la décennie noire,. Sa mère est française.
+En 1986, elle obtient le baccalauréat et, en 1993, un magistère en biochimie à l'université des sciences et de la technologie Houari-Boumédiène. Au cours de ses études, elle travaille à l'Institut Pasteur d'Algérie où elle est chargée d'améliorer les méthodes de diagnostic de la leishmaniose. Le contexte de la décennie noire la contraint à quitter l'Algérie pour la France. Elle passe alors un DEA à l'université Paris-Sud. En 1996, elle soutient sa thèse de doctorat à l'université Paris-Sud et à l'institut Pasteur sur les réponses immunitaires au parasite Leishmania,.
 </t>
         </is>
       </c>
@@ -551,26 +560,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Récompenses</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2013 : médaille d'or de l'Union internationale de biochimie et de biologie moléculaire[réf. souhaitée].
-2016 :
-prix Sanofi-Institut Pasteur[18],[19] ;
-membre de la Société américaine de microbiologie[20].
-2017 :
-prix Emil von Behring[21] ;
-membre de l'Académie nationale des sciences[22],[23].
-2018 :
-membre de Académie nationale de médecine[24].
-2019 :
-Lurie Prize in Biomedical Sciences[25].
-2020 :
-membre de l'Académie américaine des arts et des sciences[26].
-2021 :
-prix Robert Koch[25].</t>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'installe ensuite aux États-Unis pour poursuivre ses recherches postdoctorales au laboratoire des maladies parasitaires du National Institute of Allergy and Infectious Diseases (NIAID). En 2002, elle rejoint la section d'immunologie moléculaire à l’hôpital pour enfants de Cincinnati. En 2005, elle retourne au NIAID en tant que chercheuse titulaire au laboratoire des maladies parasitaires. En 2008, elle devient professeure associée à l'université de Pennsylvanie,.
+Elle mène ses recherches sur les interactions entre les microbes et leurs hôtes. Elle explore les réactions du système immunitaire face à la présence de microbes. Au sein du NIAID, elle crée le département de l’immunité de l’hôte et du microbiome.
+En janvier 2024, elle prend ses fonctions de directrice générale à l'Institut Pasteur pour un mandat de 6 ans,. Elle est la deuxième femme à occuper ce poste[réf. souhaitée].
+</t>
         </is>
       </c>
     </row>
@@ -595,10 +599,97 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recherches</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches de Yasmine Belkaid visent à démêler les mécanismes qui sous-tendent les interactions hôte-microbe dans le tractus gastro-intestinal et sur la peau, qui constituent des barrières naturelles entre le fonctionnement interne de l'hôte et son environnement externe,. Cela inclut également le rôle que joue le microbiote dans la promotion de l’immunité contre les infections par d’autres agents pathogènes nocifs,. Son groupe a contribué à la compréhension scientifique de la manière dont le système immunitaire de l'hôte peut distinguer les bons microbes des mauvais,.
+Les recherches de Yasmine Belkaid ont également conduit à la découverte de certains microbes cutanés qui jouent un rôle important dans la défense immunitaire,. Son équipe a aussi découvert que les bactéries bénéfiques vivant à la surface de la peau peuvent également accélérer la cicatrisation des plaies chez la souris.
+Le groupe de Yasmine Belkaid étudie également ce qui se passe en cas de déséquilibre dans notre microbiome. Les recherches de Belkaid ont fait progresser la compréhension scientifique de la manière dont les modifications du microbiote peuvent contribuer aux maladies, en particulier aux maladies inflammatoires chroniques comme la maladie de Crohn et le psoriasis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yasmine_Belkaid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yasmine_Belkaid</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2013 : médaille d'or de l'Union internationale de biochimie et de biologie moléculaire[réf. souhaitée].
+2016 :
+prix Sanofi-Institut Pasteur, ;
+membre de la Société américaine de microbiologie.
+2017 :
+prix Emil von Behring ;
+membre de l'Académie nationale des sciences,.
+2018 :
+membre de Académie nationale de médecine.
+2019 :
+Lurie Prize in Biomedical Sciences.
+2020 :
+membre de l'Académie américaine des arts et des sciences.
+2021 :
+prix Robert Koch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yasmine_Belkaid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yasmine_Belkaid</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Dutzan N, ..., Belkaid Y et al., « On-going Mechanical Damage from Mastication Drives Homeostatic Th17 Cell Responses at the Oral Barrier », Immunity, vol. 46, no 133,‎ 2017, p. 47 (DOI 10.1016/J.Immuni.2016.12.010).
 (en) Chudnovskiy A, ..., Belkaid Y et al., « Host-Protozoan Interactions Protect from Mucosal Infections through Activation of the Inflammasome », Cell, no 167,‎ 2016, p. 444-456 (DOI 10.1016/J.Cell.2016.08.076).
